--- a/PartieCommune/Tests d'intégrations/Plan de tests - Intégration - Accès Campus.xlsx
+++ b/PartieCommune/Tests d'intégrations/Plan de tests - Intégration - Accès Campus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\GITHUB\ACCES_CAMPUS\Acc-s-campus-\PartieCommune\Tests d'intégrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopti\Documents\Projet\PartieCommune\Tests d'intégrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DFC84-E923-45EA-8F3D-B134B0FDB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CCFE6-D308-4996-BCAC-B1169EE5C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{18F8DFE5-A761-46E3-A16D-35F5230787AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{18F8DFE5-A761-46E3-A16D-35F5230787AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de tests" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -855,6 +855,28 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -862,29 +884,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,37 +995,49 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -935,115 +1046,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1396,138 +1427,145 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="10">
         <v>45747</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:F8"/>
@@ -1535,13 +1573,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" location="'PEA &lt;-&gt; BDD'!B4" display="T1" xr:uid="{55FAB7D0-9D31-4CBB-925A-60184F626EDA}"/>
@@ -1552,209 +1583,209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E69C73B-0D4C-4A9F-B14B-5D77DA468969}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="30" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="16"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="63">
         <v>45747</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="235.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="53">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57">
+      <c r="B11" s="64">
         <v>2</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C13" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="64" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="66" t="s">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="33" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
+  <mergeCells count="22">
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B4:C4"/>
@@ -1765,6 +1796,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
